--- a/Quy dinh.xlsx
+++ b/Quy dinh.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Quy định về post Type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>int</t>
   </si>
@@ -34,6 +28,51 @@
   </si>
   <si>
     <t>reply</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PostType</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>classroom_user</t>
+  </si>
+  <si>
+    <t>Teacher invites student</t>
+  </si>
+  <si>
+    <t>Student requests teacher</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -57,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -65,12 +104,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,52 +477,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A3:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Quy dinh.xlsx
+++ b/Quy dinh.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>int</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
   </si>
 </sst>
 </file>
@@ -149,33 +161,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E12"/>
+  <dimension ref="A3:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,144 +504,170 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="16">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D3:E3"/>
@@ -637,8 +676,14 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Quy dinh.xlsx
+++ b/Quy dinh.xlsx
@@ -167,11 +167,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -188,7 +189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +493,7 @@
   <dimension ref="A3:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,24 +504,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,10 +533,10 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2">
@@ -548,8 +548,8 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2">
         <v>2</v>
       </c>
@@ -559,8 +559,8 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2">
         <v>3</v>
       </c>
@@ -569,13 +569,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2">
@@ -586,9 +586,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2">
         <v>2</v>
       </c>
@@ -600,10 +600,10 @@
       <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2">
@@ -615,8 +615,8 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2">
         <v>1</v>
       </c>
@@ -626,8 +626,8 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2">
         <v>2</v>
       </c>
@@ -639,43 +639,43 @@
       <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="10">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>22</v>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
